--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF180B8-08E4-4A1C-8A92-423AEB3D9808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52F7849-F4E8-44ED-9D9B-A0DA8C03F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
   </bookViews>
@@ -72,14 +72,6 @@
     <t>Giá mua</t>
   </si>
   <si>
-    <t>Giá bán
-R0</t>
-  </si>
-  <si>
-    <t>Giá bán
-R1</t>
-  </si>
-  <si>
     <t>Đại lý</t>
   </si>
   <si>
@@ -143,7 +135,13 @@
     <t>SN-202508-00006</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Giá bán R0</t>
+  </si>
+  <si>
+    <t>Giá bán R1</t>
+  </si>
+  <si>
+    <t>KNA</t>
   </si>
 </sst>
 </file>
@@ -603,7 +601,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,42 +664,42 @@
         <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="6">
         <v>45570</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="4">
         <v>1500</v>
@@ -716,39 +714,41 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" s="4">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P3" s="4">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7">
+        <v>25000</v>
+      </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="6">
         <v>45571</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="4">
         <v>1500</v>
@@ -763,39 +763,41 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="4">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O4" s="4">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P4" s="4">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7">
+        <v>25000</v>
+      </c>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6">
         <v>45572</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4">
         <v>1500</v>
@@ -810,39 +812,41 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="4">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O5" s="4">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P5" s="4">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7">
+        <v>25000</v>
+      </c>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6">
         <v>45573</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4">
         <v>1500</v>
@@ -857,39 +861,41 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="4">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O6" s="4">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P6" s="4">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7">
+        <v>25000</v>
+      </c>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6">
         <v>45574</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>1500</v>
@@ -904,39 +910,41 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="4">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" s="4">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P7" s="4">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7">
+        <v>25000</v>
+      </c>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6">
         <v>45575</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4">
         <v>1500</v>
@@ -951,16 +959,18 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="4">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O8" s="4">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P8" s="4">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7">
+        <v>25000</v>
+      </c>
       <c r="S8" s="7"/>
     </row>
   </sheetData>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52F7849-F4E8-44ED-9D9B-A0DA8C03F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA578D2-2747-42A3-980E-81182A65D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>PO</t>
   </si>
@@ -82,30 +82,6 @@
   </si>
   <si>
     <t>NV20241115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0170
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0171
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0172
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0173
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0174
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NBL0175
-</t>
   </si>
   <si>
     <t>PHỤ KIỆN</t>
@@ -601,7 +577,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>15</v>
@@ -679,33 +655,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
+      <c r="B3" s="5" t="str">
+        <f ca="1">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>PK_KN_63777</v>
       </c>
       <c r="C3" s="6">
         <v>45570</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4">
         <v>1500</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J3" s="7">
         <v>100</v>
@@ -728,33 +705,34 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:B8" ca="1" si="0">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
+        <v>PK_KN_59685</v>
       </c>
       <c r="C4" s="6">
         <v>45571</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4">
         <v>1500</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J4" s="7">
         <v>100</v>
@@ -777,33 +755,34 @@
       </c>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_KN_57922</v>
       </c>
       <c r="C5" s="6">
         <v>45572</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <v>1500</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J5" s="7">
         <v>100</v>
@@ -826,33 +805,34 @@
       </c>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_KN_08542</v>
       </c>
       <c r="C6" s="6">
         <v>45573</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="4">
         <v>1500</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J6" s="7">
         <v>100</v>
@@ -875,33 +855,34 @@
       </c>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
+      <c r="B7" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_KN_27766</v>
       </c>
       <c r="C7" s="6">
         <v>45574</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>1500</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J7" s="7">
         <v>100</v>
@@ -924,33 +905,34 @@
       </c>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
+      <c r="B8" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PK_KN_10864</v>
       </c>
       <c r="C8" s="6">
         <v>45575</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="4">
         <v>1500</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J8" s="7">
         <v>100</v>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA578D2-2747-42A3-980E-81182A65D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20919D0-B31D-45BE-820C-571FD14AEB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>PO</t>
   </si>
@@ -87,44 +87,17 @@
     <t>PHỤ KIỆN</t>
   </si>
   <si>
-    <t>KHUNG NÂNG</t>
-  </si>
-  <si>
-    <t>PTE15N Pro</t>
-  </si>
-  <si>
-    <t>SN-202508-00001</t>
-  </si>
-  <si>
-    <t>SN-202508-00002</t>
-  </si>
-  <si>
-    <t>SN-202508-00003</t>
-  </si>
-  <si>
-    <t>SN-202508-00004</t>
-  </si>
-  <si>
-    <t>SN-202508-00005</t>
-  </si>
-  <si>
-    <t>SN-202508-00006</t>
-  </si>
-  <si>
     <t>Giá bán R0</t>
   </si>
   <si>
     <t>Giá bán R1</t>
-  </si>
-  <si>
-    <t>KNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +133,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +153,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -231,12 +222,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +302,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -577,7 +644,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +667,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -609,22 +676,22 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -636,19 +703,19 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="O2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -661,7 +728,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f ca="1">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_KN_63777</v>
+        <v>PK_KN_26343</v>
       </c>
       <c r="C3" s="6">
         <v>45570</v>
@@ -669,39 +736,56 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
+      <c r="E3" s="7" t="str">
+        <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
+        <v>PPT_2</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>8FD25</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
+        <v>SN-202509-30764</v>
       </c>
       <c r="H3" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(10,25)*100</f>
+        <v>2100</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f ca="1">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
+        <v>KNE</v>
       </c>
       <c r="J3" s="7">
-        <v>100</v>
+        <f ca="1">RANDBETWEEN(30,60)*100</f>
+        <v>5500</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O3" s="4">
-        <v>21000</v>
+        <f ca="1">RANDBETWEEN(1,5)*10</f>
+        <v>30</v>
+      </c>
+      <c r="O3" s="13">
+        <f ca="1">RANDBETWEEN(16,20)*10</f>
+        <v>170</v>
       </c>
       <c r="P3" s="4">
-        <v>22000</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7">
-        <v>25000</v>
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>60</v>
+      </c>
+      <c r="Q3" s="14" t="str">
+        <f ca="1">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
+        <v>Đại lý_E</v>
+      </c>
+      <c r="R3" s="15">
+        <f ca="1">RANDBETWEEN(11,15)*10</f>
+        <v>150</v>
       </c>
       <c r="S3" s="7"/>
     </row>
@@ -711,7 +795,7 @@
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="0">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_KN_59685</v>
+        <v>PK_KN_07675</v>
       </c>
       <c r="C4" s="6">
         <v>45571</v>
@@ -719,39 +803,56 @@
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
+      <c r="E4" s="7" t="str">
+        <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
+        <v>PPT_2</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
+"8FB15","8FD25","7FBEU18",
+"FB25-12","FD30T-16",
+"J2.5XN","H3.0FT",
+"FE4P16","FE4P25","FE3D20N")</f>
+        <v>H3.0FT</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
+        <v>SN-202509-56407</v>
       </c>
       <c r="H4" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
+        <f t="shared" ref="H4:H8" ca="1" si="4">RANDBETWEEN(10,25)*100</f>
+        <v>2200</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" ref="I4:I7" ca="1" si="5">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
+        <v>KNF</v>
       </c>
       <c r="J4" s="7">
-        <v>100</v>
+        <f t="shared" ref="J4:J8" ca="1" si="6">RANDBETWEEN(30,60)*100</f>
+        <v>3600</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O4" s="4">
-        <v>21000</v>
+        <f t="shared" ref="N4:N8" ca="1" si="7">RANDBETWEEN(1,5)*10</f>
+        <v>30</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" ref="O4:O8" ca="1" si="8">RANDBETWEEN(16,20)*10</f>
+        <v>180</v>
       </c>
       <c r="P4" s="4">
-        <v>22000</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <v>25000</v>
+        <f t="shared" ref="P4:P8" ca="1" si="9">RANDBETWEEN(6,10)*10</f>
+        <v>60</v>
+      </c>
+      <c r="Q4" s="14" t="str">
+        <f t="shared" ref="Q4:Q8" ca="1" si="10">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
+        <v>Đại lý_E</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4:R8" ca="1" si="11">RANDBETWEEN(11,15)*10</f>
+        <v>150</v>
       </c>
       <c r="S4" s="7"/>
     </row>
@@ -761,7 +862,7 @@
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_57922</v>
+        <v>PK_KN_66197</v>
       </c>
       <c r="C5" s="6">
         <v>45572</v>
@@ -769,39 +870,52 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
+      <c r="E5" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_2</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>H3.0FT</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-18821</v>
       </c>
       <c r="H5" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>KNE</v>
       </c>
       <c r="J5" s="7">
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5800</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O5" s="4">
-        <v>21000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" ca="1" si="8"/>
+        <v>190</v>
       </c>
       <c r="P5" s="4">
-        <v>22000</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="Q5" s="14" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Đại lý_B</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>110</v>
       </c>
       <c r="S5" s="7"/>
     </row>
@@ -811,7 +925,7 @@
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_08542</v>
+        <v>PK_KN_17870</v>
       </c>
       <c r="C6" s="6">
         <v>45573</v>
@@ -819,39 +933,52 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
+      <c r="E6" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_1</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>8FB15</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-28894</v>
       </c>
       <c r="H6" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>KNA</v>
       </c>
       <c r="J6" s="7">
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4700</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O6" s="4">
-        <v>21000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" ca="1" si="8"/>
+        <v>180</v>
       </c>
       <c r="P6" s="4">
-        <v>22000</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="Q6" s="14" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Đại lý_B</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>150</v>
       </c>
       <c r="S6" s="7"/>
     </row>
@@ -861,7 +988,7 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_27766</v>
+        <v>PK_KN_14648</v>
       </c>
       <c r="C7" s="6">
         <v>45574</v>
@@ -869,39 +996,52 @@
       <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
+      <c r="E7" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_3</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FB25-12</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-90372</v>
       </c>
       <c r="H7" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>KNC</v>
       </c>
       <c r="J7" s="7">
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4700</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O7" s="4">
-        <v>21000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" ca="1" si="8"/>
+        <v>170</v>
       </c>
       <c r="P7" s="4">
-        <v>22000</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="Q7" s="14" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Đại lý_C</v>
+      </c>
+      <c r="R7" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>110</v>
       </c>
       <c r="S7" s="7"/>
     </row>
@@ -911,7 +1051,7 @@
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_10864</v>
+        <v>PK_KN_12807</v>
       </c>
       <c r="C8" s="6">
         <v>45575</v>
@@ -919,39 +1059,52 @@
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
+      <c r="E8" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PPT_5</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>FD30T-16</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>SN-202509-09246</v>
       </c>
       <c r="H8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2300</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f ca="1">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
+        <v>KNA</v>
       </c>
       <c r="J8" s="7">
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3600</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="4">
-        <v>20000</v>
-      </c>
-      <c r="O8" s="4">
-        <v>21000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" ca="1" si="8"/>
+        <v>190</v>
       </c>
       <c r="P8" s="4">
-        <v>22000</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7">
-        <v>25000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="Q8" s="14" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Đại lý_E</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" ca="1" si="11"/>
+        <v>150</v>
       </c>
       <c r="S8" s="7"/>
     </row>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20919D0-B31D-45BE-820C-571FD14AEB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329E880-84D1-4492-83F0-F93F1145642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>PO</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Giá bán R1</t>
+  </si>
+  <si>
+    <t>Giá khác</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128DABF-C080-441F-BC47-565CE11DCB3C}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,12 +661,12 @@
     <col min="7" max="7" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,23 +715,26 @@
       <c r="P2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5" t="str">
         <f ca="1">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_KN_26343</v>
+        <v>PK_KN_34931</v>
       </c>
       <c r="C3" s="6">
         <v>45570</v>
@@ -738,64 +744,68 @@
       </c>
       <c r="E3" s="7" t="str">
         <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_2</v>
-      </c>
-      <c r="F3" s="10" t="str">
+        <v>PPT_1</v>
+      </c>
+      <c r="F3" s="10" t="e">
         <f ca="1">CHOOSE(RANDBETWEEN(1,11),
 "8FB15","8FD25","7FBEU18",
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>8FD25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G3" s="4" t="str">
         <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202509-30764</v>
+        <v>SN-202510-11817</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">RANDBETWEEN(10,25)*100</f>
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="I3" s="7" t="str">
         <f ca="1">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
-        <v>KNE</v>
+        <v>KNA</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">RANDBETWEEN(30,60)*100</f>
-        <v>5500</v>
+        <v>3100</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4">
         <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O3" s="13">
         <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="P3" s="4">
         <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>60</v>
-      </c>
-      <c r="Q3" s="14" t="str">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="4">
+        <f ca="1">RANDBETWEEN(6,10)*10</f>
+        <v>90</v>
+      </c>
+      <c r="R3" s="14" t="str">
         <f ca="1">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_E</v>
-      </c>
-      <c r="R3" s="15">
+        <v>Đại lý_D</v>
+      </c>
+      <c r="S3" s="15">
         <f ca="1">RANDBETWEEN(11,15)*10</f>
         <v>150</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4:B8" ca="1" si="0">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_KN_07675</v>
+        <v>PK_KN_58404</v>
       </c>
       <c r="C4" s="6">
         <v>45571</v>
@@ -805,7 +815,7 @@
       </c>
       <c r="E4" s="7" t="str">
         <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_2</v>
+        <v>PPT_1</v>
       </c>
       <c r="F4" s="10" t="str">
         <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
@@ -813,56 +823,60 @@
 "FB25-12","FD30T-16",
 "J2.5XN","H3.0FT",
 "FE4P16","FE4P25","FE3D20N")</f>
-        <v>H3.0FT</v>
+        <v>7FBEU18</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202509-56407</v>
+        <v>SN-202510-82685</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H8" ca="1" si="4">RANDBETWEEN(10,25)*100</f>
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" ref="I4:I7" ca="1" si="5">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
-        <v>KNF</v>
+        <v>KNB</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J8" ca="1" si="6">RANDBETWEEN(30,60)*100</f>
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="4">
         <f t="shared" ref="N4:N8" ca="1" si="7">RANDBETWEEN(1,5)*10</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" ref="O4:O8" ca="1" si="8">RANDBETWEEN(16,20)*10</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P8" ca="1" si="9">RANDBETWEEN(6,10)*10</f>
-        <v>60</v>
-      </c>
-      <c r="Q4" s="14" t="str">
-        <f t="shared" ref="Q4:Q8" ca="1" si="10">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_E</v>
-      </c>
-      <c r="R4" s="15">
-        <f t="shared" ref="R4:R8" ca="1" si="11">RANDBETWEEN(11,15)*10</f>
-        <v>150</v>
-      </c>
-      <c r="S4" s="7"/>
+        <f t="shared" ref="P4:Q8" ca="1" si="9">RANDBETWEEN(6,10)*10</f>
+        <v>90</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="R4" s="14" t="str">
+        <f t="shared" ref="R4:R8" ca="1" si="10">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
+        <v>Đại lý_B</v>
+      </c>
+      <c r="S4" s="15">
+        <f t="shared" ref="S4:S8" ca="1" si="11">RANDBETWEEN(11,15)*10</f>
+        <v>110</v>
+      </c>
+      <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_66197</v>
+        <v>PK_KN_42640</v>
       </c>
       <c r="C5" s="6">
         <v>45572</v>
@@ -872,60 +886,64 @@
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_2</v>
+        <v>PPT_4</v>
       </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>H3.0FT</v>
+        <v>FE4P16</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-18821</v>
+        <v>SN-202510-71456</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>KNE</v>
+        <v>KND</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="Q5" s="14" t="str">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="R5" s="14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_B</v>
-      </c>
-      <c r="R5" s="15">
+        <v>Đại lý_D</v>
+      </c>
+      <c r="S5" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_17870</v>
+        <v>PK_KN_87030</v>
       </c>
       <c r="C6" s="6">
         <v>45573</v>
@@ -935,15 +953,15 @@
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
+        <v>PPT_3</v>
       </c>
       <c r="F6" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8FB15</v>
+        <v>FB25-12</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-28894</v>
+        <v>SN-202510-60775</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -951,18 +969,18 @@
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>KNA</v>
+        <v>KNB</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" ca="1" si="8"/>
@@ -970,25 +988,29 @@
       </c>
       <c r="P6" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="Q6" s="14" t="str">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="R6" s="14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_B</v>
-      </c>
-      <c r="R6" s="15">
+        <v>Đại lý_E</v>
+      </c>
+      <c r="S6" s="15">
         <f t="shared" ca="1" si="11"/>
         <v>150</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_14648</v>
+        <v>PK_KN_69150</v>
       </c>
       <c r="C7" s="6">
         <v>45574</v>
@@ -998,34 +1020,34 @@
       </c>
       <c r="E7" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_3</v>
+        <v>PPT_1</v>
       </c>
       <c r="F7" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FB25-12</v>
+        <v>FD30T-16</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-90372</v>
+        <v>SN-202510-40437</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>KNC</v>
+        <v>KNB</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" ca="1" si="8"/>
@@ -1033,25 +1055,29 @@
       </c>
       <c r="P7" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="Q7" s="14" t="str">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="R7" s="14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_C</v>
-      </c>
-      <c r="R7" s="15">
+        <v>Đại lý_A</v>
+      </c>
+      <c r="S7" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_12807</v>
+        <v>PK_KN_46539</v>
       </c>
       <c r="C8" s="6">
         <v>45575</v>
@@ -1061,7 +1087,7 @@
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PPT_5</v>
+        <v>PPT_2</v>
       </c>
       <c r="F8" s="10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1069,44 +1095,48 @@
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SN-202509-09246</v>
+        <v>SN-202510-51519</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="I8" s="7" t="str">
         <f ca="1">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
-        <v>KNA</v>
+        <v>KNE</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="6"/>
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O8" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" ca="1" si="9"/>
         <v>90</v>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="4">
+        <f t="shared" ca="1" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="R8" s="14" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Đại lý_E</v>
       </c>
-      <c r="R8" s="15">
+      <c r="S8" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="T8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
+++ b/src/main/resources/report_templates/EXCEL_TO_PRODUCTION_PRODUCT_LIFTING_FRAME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MeU\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329E880-84D1-4492-83F0-F93F1145642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDF46D-E58F-424A-AF03-7F5502EEEB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B7C49F-3384-41B4-BDE0-A55F88882BB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>PO</t>
   </si>
@@ -94,13 +94,91 @@
   </si>
   <si>
     <t>Giá khác</t>
+  </si>
+  <si>
+    <t>PK_KN_32382</t>
+  </si>
+  <si>
+    <t>PPT_4</t>
+  </si>
+  <si>
+    <t>7FBEU18</t>
+  </si>
+  <si>
+    <t>SN-202510-62744</t>
+  </si>
+  <si>
+    <t>KND</t>
+  </si>
+  <si>
+    <t>Đại lý_A</t>
+  </si>
+  <si>
+    <t>PK_KN_88952</t>
+  </si>
+  <si>
+    <t>8FB15</t>
+  </si>
+  <si>
+    <t>SN-202510-20635</t>
+  </si>
+  <si>
+    <t>KNB</t>
+  </si>
+  <si>
+    <t>Đại lý_E</t>
+  </si>
+  <si>
+    <t>PK_KN_29059</t>
+  </si>
+  <si>
+    <t>PPT_2</t>
+  </si>
+  <si>
+    <t>FB25-12</t>
+  </si>
+  <si>
+    <t>SN-202510-11498</t>
+  </si>
+  <si>
+    <t>KNF</t>
+  </si>
+  <si>
+    <t>PK_KN_05045</t>
+  </si>
+  <si>
+    <t>PPT_3</t>
+  </si>
+  <si>
+    <t>FE4P16</t>
+  </si>
+  <si>
+    <t>SN-202510-92539</t>
+  </si>
+  <si>
+    <t>PK_KN_29148</t>
+  </si>
+  <si>
+    <t>FE4P25</t>
+  </si>
+  <si>
+    <t>SN-202510-14889</t>
+  </si>
+  <si>
+    <t>Đại lý_B</t>
+  </si>
+  <si>
+    <t>PK_KN_25380</t>
+  </si>
+  <si>
+    <t>SN-202510-76801</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,11 +201,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
@@ -169,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,142 +265,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128DABF-C080-441F-BC47-565CE11DCB3C}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="1" sqref="B10 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,479 +620,393 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <f ca="1">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_KN_34931</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
         <v>45570</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f ca="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_1</v>
-      </c>
-      <c r="F3" s="10" t="e">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f ca="1">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202510-11817</v>
-      </c>
-      <c r="H3" s="4">
-        <f ca="1">RANDBETWEEN(10,25)*100</f>
-        <v>1600</v>
-      </c>
-      <c r="I3" s="7" t="str">
-        <f ca="1">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
-        <v>KNA</v>
-      </c>
-      <c r="J3" s="7">
-        <f ca="1">RANDBETWEEN(30,60)*100</f>
-        <v>3100</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="4">
-        <f ca="1">RANDBETWEEN(1,5)*10</f>
-        <v>50</v>
-      </c>
-      <c r="O3" s="13">
-        <f ca="1">RANDBETWEEN(16,20)*10</f>
-        <v>200</v>
-      </c>
-      <c r="P3" s="4">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5600</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <v>170</v>
+      </c>
+      <c r="P3" s="1">
         <v>70</v>
       </c>
-      <c r="Q3" s="4">
-        <f ca="1">RANDBETWEEN(6,10)*10</f>
-        <v>90</v>
-      </c>
-      <c r="R3" s="14" t="str">
-        <f ca="1">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_D</v>
-      </c>
-      <c r="S3" s="15">
-        <f ca="1">RANDBETWEEN(11,15)*10</f>
+      <c r="Q3" s="1">
+        <v>80</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1">
         <v>150</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="str">
-        <f t="shared" ref="B4:B8" ca="1" si="0">"PK_KN_"&amp;TEXT(RANDBETWEEN(0,99999),"00000")</f>
-        <v>PK_KN_58404</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
         <v>45571</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="str">
-        <f t="shared" ref="E4:E8" ca="1" si="1">"PPT_" &amp; RANDBETWEEN(1,5)</f>
-        <v>PPT_1</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f t="shared" ref="F4:F8" ca="1" si="2">CHOOSE(RANDBETWEEN(1,11),
-"8FB15","8FD25","7FBEU18",
-"FB25-12","FD30T-16",
-"J2.5XN","H3.0FT",
-"FE4P16","FE4P25","FE3D20N")</f>
-        <v>7FBEU18</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" ref="G4:G8" ca="1" si="3">"SN-" &amp; TEXT(TODAY(),"YYYYMM") &amp; "-" &amp; TEXT(RANDBETWEEN(1,99999),"00000")</f>
-        <v>SN-202510-82685</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H8" ca="1" si="4">RANDBETWEEN(10,25)*100</f>
-        <v>1500</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" ref="I4:I7" ca="1" si="5">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
-        <v>KNB</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" ref="J4:J8" ca="1" si="6">RANDBETWEEN(30,60)*100</f>
-        <v>4200</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="4">
-        <f t="shared" ref="N4:N8" ca="1" si="7">RANDBETWEEN(1,5)*10</f>
-        <v>10</v>
-      </c>
-      <c r="O4" s="13">
-        <f t="shared" ref="O4:O8" ca="1" si="8">RANDBETWEEN(16,20)*10</f>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2300</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5700</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1">
         <v>160</v>
       </c>
-      <c r="P4" s="4">
-        <f t="shared" ref="P4:Q8" ca="1" si="9">RANDBETWEEN(6,10)*10</f>
+      <c r="P4" s="1">
         <v>90</v>
       </c>
-      <c r="Q4" s="4">
-        <f t="shared" ca="1" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="R4" s="14" t="str">
-        <f t="shared" ref="R4:R8" ca="1" si="10">"Đại lý_" &amp; CHOOSE(RANDBETWEEN(1,5),"A","B","C","D","E")</f>
-        <v>Đại lý_B</v>
-      </c>
-      <c r="S4" s="15">
-        <f t="shared" ref="S4:S8" ca="1" si="11">RANDBETWEEN(11,15)*10</f>
-        <v>110</v>
-      </c>
-      <c r="T4" s="7"/>
+      <c r="Q4" s="1">
+        <v>100</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1">
+        <v>130</v>
+      </c>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_42640</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
         <v>45572</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_4</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FE4P16</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-71456</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1100</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>KND</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>4700</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" ca="1" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" ca="1" si="9"/>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5600</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1">
+        <v>200</v>
+      </c>
+      <c r="P5" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="1">
         <v>100</v>
       </c>
-      <c r="Q5" s="4">
-        <f t="shared" ca="1" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="R5" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_D</v>
-      </c>
-      <c r="S5" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>140</v>
-      </c>
-      <c r="T5" s="7"/>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1">
+        <v>130</v>
+      </c>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_87030</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
         <v>45573</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_3</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FB25-12</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-60775</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1300</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>KNB</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>4600</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="O6" s="13">
-        <f t="shared" ca="1" si="8"/>
-        <v>180</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" ca="1" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" ca="1" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="R6" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_E</v>
-      </c>
-      <c r="S6" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="T6" s="7"/>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4800</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1">
+        <v>190</v>
+      </c>
+      <c r="P6" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="1">
+        <v>120</v>
+      </c>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_69150</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
         <v>45574</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_1</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FD30T-16</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-40437</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>KNB</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>6000</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="4">
-        <f t="shared" ca="1" si="7"/>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4900</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
         <v>20</v>
       </c>
-      <c r="O7" s="13">
-        <f t="shared" ca="1" si="8"/>
-        <v>170</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" ca="1" si="9"/>
+      <c r="O7" s="1">
+        <v>160</v>
+      </c>
+      <c r="P7" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="1">
         <v>80</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" ca="1" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="R7" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_A</v>
-      </c>
-      <c r="S7" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="T7" s="7"/>
+      <c r="R7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="1">
+        <v>110</v>
+      </c>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>PK_KN_46539</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
         <v>45575</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>PPT_2</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>FD30T-16</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>SN-202510-51519</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1900</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f ca="1">"KN" &amp; CHAR(RANDBETWEEN(65,70))</f>
-        <v>KNE</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>5400</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="4">
-        <f t="shared" ca="1" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="O8" s="13">
-        <f t="shared" ca="1" si="8"/>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4100</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1">
         <v>180</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" ca="1" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" ca="1" si="9"/>
+      <c r="P8" s="1">
         <v>60</v>
       </c>
-      <c r="R8" s="14" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Đại lý_E</v>
-      </c>
-      <c r="S8" s="15">
-        <f t="shared" ca="1" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="T8" s="7"/>
+      <c r="Q8" s="1">
+        <v>100</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="1">
+        <v>130</v>
+      </c>
+      <c r="T8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>